--- a/data/georgia_census/imereti/zestafoni/population_total.xlsx
+++ b/data/georgia_census/imereti/zestafoni/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8A580B8-C91C-4724-829C-9CFBE456F198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD826036-42D4-4800-8653-AE612CB7FD12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620AB5B3-9D75-47D4-8E2C-D7D7E9EA5966}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CC9D7D-72A7-486C-BC1F-D4BC87151ECE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37963972-8C14-4DF6-AD5E-D16FFD8D3773}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D468D083-711A-4F18-BD03-17C8D9B8DCBC}"/>
 </file>